--- a/biology/Zoologie/Fabriciana/Fabriciana.xlsx
+++ b/biology/Zoologie/Fabriciana/Fabriciana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabriciana est un genre de lépidoptères (papillons) de la famille des Nymphalidae. Il regroupe une dizaine d'espèces, originaires de l'écozone paléarctique.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Fabriciana a été décrit par le lépidoptériste allemand Albert Franz Theodor Reuss en 1920. Son espèce type est Papilio niobe  Linnaeus, 1758[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Fabriciana a été décrit par le lépidoptériste allemand Albert Franz Theodor Reuss en 1920. Son espèce type est Papilio niobe  Linnaeus, 1758.
 Fabriciana a souvent été traité comme un sous-genre du genre Argynnis ou comme un synonyme.
-Une étude de phylogénétique moléculaire publiée en 2017 a conduit à le considérer à nouveau comme un genre à part entière, au même titre que son genre frère, Speyeria[2].
+Une étude de phylogénétique moléculaire publiée en 2017 a conduit à le considérer à nouveau comme un genre à part entière, au même titre que son genre frère, Speyeria.
 </t>
         </is>
       </c>
@@ -544,15 +558,17 @@
           <t>Espèces et distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Fabriciana compte une dizaine d'espèces, dont le nombre et les délimitations exactes peuvent varier en fonction des sources.
 Ces espèces sont toutes originaires de l'écozone paléarctique, leur diversité étant la plus grande en Asie centrale et orientale. Trois sont présentes en Europe : les deux espèces à large répartition que sont F. adippe et F. niobe, et l'endémique cyrno-sarde F. elisa.
-Liste selon FUNET Tree of Life  (17 septembre 2019)[1] :
+Liste selon FUNET Tree of Life  (17 septembre 2019) :
 Fabriciana adippe (Denis &amp; Schiffermüller, 1775) — le Moyen nacré — large répartition, de l'Europe de l'Ouest au Japon.
 Fabriciana argyrospilata (Kotzsch, 1938) — en Afghanistan, dans le Pamir, au Pakistan et dans le Nord-Ouest de l'Inde.
 Fabriciana auresiana (Fruhstorfer, 1908) — le Moyen nacré des Atlas — au Maroc et en Algérie.
-Fabriciana elisa (Godart, [1824]) — le Nacré tyrrhénien — en Corse et en Sardaigne.
+Fabriciana elisa (Godart, ) — le Nacré tyrrhénien — en Corse et en Sardaigne.
 Fabriciana hallasanensis Okano, 1998 — en Corée.
 Fabriciana jainadeva (Moore, 1864) — au Pakistan, dans le Nord de l'Inde et l'Ouest de l'Himalaya.
 Fabriciana kamala (Moore, 1857) — dans l'Himalaya, le Nord de l'Inde et du Pakistan.
@@ -587,7 +603,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la plupart des Argynnini, les Fabriciana ont le dessus des ailes fauve orangé orné de nombreuses taches noires.
 Ils se distinguent des genres voisins Argynnis et Speyeria par la présence, au revers de l'aile postérieure, d'une série de taches postdiscales rougeâtres pupillées de clair.
